--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05230133333333333</v>
+        <v>0.07785533333333333</v>
       </c>
       <c r="H2">
-        <v>0.156904</v>
+        <v>0.233566</v>
       </c>
       <c r="I2">
-        <v>0.05687882762275762</v>
+        <v>0.08237997085243232</v>
       </c>
       <c r="J2">
-        <v>0.05687882762275762</v>
+        <v>0.08237997085243232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N2">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O2">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P2">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q2">
-        <v>1.689690110435556</v>
+        <v>0.5353119655904445</v>
       </c>
       <c r="R2">
-        <v>15.20721099392</v>
+        <v>4.817807690314</v>
       </c>
       <c r="S2">
-        <v>0.05042804264685712</v>
+        <v>0.05145346746203772</v>
       </c>
       <c r="T2">
-        <v>0.05042804264685711</v>
+        <v>0.05145346746203772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05230133333333333</v>
+        <v>0.07785533333333333</v>
       </c>
       <c r="H3">
-        <v>0.156904</v>
+        <v>0.233566</v>
       </c>
       <c r="I3">
-        <v>0.05687882762275762</v>
+        <v>0.08237997085243232</v>
       </c>
       <c r="J3">
-        <v>0.05687882762275762</v>
+        <v>0.08237997085243232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.210869</v>
       </c>
       <c r="O3">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P3">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q3">
-        <v>0.03854379884177777</v>
+        <v>0.05737598098377777</v>
       </c>
       <c r="R3">
-        <v>0.3468941895759999</v>
+        <v>0.5163838288539999</v>
       </c>
       <c r="S3">
-        <v>0.001150322369623162</v>
+        <v>0.005514902263384044</v>
       </c>
       <c r="T3">
-        <v>0.001150322369623162</v>
+        <v>0.005514902263384044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05230133333333333</v>
+        <v>0.07785533333333333</v>
       </c>
       <c r="H4">
-        <v>0.156904</v>
+        <v>0.233566</v>
       </c>
       <c r="I4">
-        <v>0.05687882762275762</v>
+        <v>0.08237997085243232</v>
       </c>
       <c r="J4">
-        <v>0.05687882762275762</v>
+        <v>0.08237997085243232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.187256</v>
       </c>
       <c r="O4">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P4">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q4">
-        <v>0.1776023572693333</v>
+        <v>0.2643774038773333</v>
       </c>
       <c r="R4">
-        <v>1.598421215424</v>
+        <v>2.379396634896001</v>
       </c>
       <c r="S4">
-        <v>0.005300462606277342</v>
+        <v>0.02541160112701056</v>
       </c>
       <c r="T4">
-        <v>0.005300462606277341</v>
+        <v>0.02541160112701056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.423503</v>
       </c>
       <c r="I5">
-        <v>0.8785372545010706</v>
+        <v>0.8547824019796645</v>
       </c>
       <c r="J5">
-        <v>0.8785372545010706</v>
+        <v>0.8547824019796644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N5">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O5">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P5">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q5">
-        <v>26.09856378238223</v>
+        <v>5.554447798670779</v>
       </c>
       <c r="R5">
-        <v>234.88707404144</v>
+        <v>49.99003018803701</v>
       </c>
       <c r="S5">
-        <v>0.7788999173939872</v>
+        <v>0.5338860654147042</v>
       </c>
       <c r="T5">
-        <v>0.7788999173939872</v>
+        <v>0.5338860654147042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.423503</v>
       </c>
       <c r="I6">
-        <v>0.8785372545010706</v>
+        <v>0.8547824019796645</v>
       </c>
       <c r="J6">
-        <v>0.8785372545010706</v>
+        <v>0.8547824019796644</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.210869</v>
       </c>
       <c r="O6">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P6">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q6">
         <v>0.5953386282341111</v>
@@ -818,10 +818,10 @@
         <v>5.358047654107</v>
       </c>
       <c r="S6">
-        <v>0.01776761404265566</v>
+        <v>0.05722314968795982</v>
       </c>
       <c r="T6">
-        <v>0.01776761404265566</v>
+        <v>0.05722314968795982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.423503</v>
       </c>
       <c r="I7">
-        <v>0.8785372545010706</v>
+        <v>0.8547824019796645</v>
       </c>
       <c r="J7">
-        <v>0.8785372545010706</v>
+        <v>0.8547824019796644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>10.187256</v>
       </c>
       <c r="O7">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P7">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q7">
         <v>2.743205053085334</v>
       </c>
       <c r="R7">
-        <v>24.688845477768</v>
+        <v>24.68884547776801</v>
       </c>
       <c r="S7">
-        <v>0.08186972306442768</v>
+        <v>0.2636731868770004</v>
       </c>
       <c r="T7">
-        <v>0.08186972306442766</v>
+        <v>0.2636731868770004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05938633333333333</v>
+        <v>0.05938633333333334</v>
       </c>
       <c r="H8">
         <v>0.178159</v>
       </c>
       <c r="I8">
-        <v>0.06458391787617188</v>
+        <v>0.06283762716790325</v>
       </c>
       <c r="J8">
-        <v>0.06458391787617189</v>
+        <v>0.06283762716790325</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N8">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O8">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P8">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q8">
-        <v>1.918583977368889</v>
+        <v>0.4083241759401112</v>
       </c>
       <c r="R8">
-        <v>17.26725579632</v>
+        <v>3.674917583461001</v>
       </c>
       <c r="S8">
-        <v>0.05725927732831167</v>
+        <v>0.03924757160532431</v>
       </c>
       <c r="T8">
-        <v>0.05725927732831168</v>
+        <v>0.03924757160532431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05938633333333333</v>
+        <v>0.05938633333333334</v>
       </c>
       <c r="H9">
         <v>0.178159</v>
       </c>
       <c r="I9">
-        <v>0.06458391787617188</v>
+        <v>0.06283762716790325</v>
       </c>
       <c r="J9">
-        <v>0.06458391787617189</v>
+        <v>0.06283762716790325</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.210869</v>
       </c>
       <c r="O9">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P9">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q9">
-        <v>0.04376513446344443</v>
+        <v>0.04376513446344444</v>
       </c>
       <c r="R9">
-        <v>0.3938862101709999</v>
+        <v>0.393886210171</v>
       </c>
       <c r="S9">
-        <v>0.001306150786784868</v>
+        <v>0.004206645968772159</v>
       </c>
       <c r="T9">
-        <v>0.001306150786784868</v>
+        <v>0.004206645968772159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05938633333333333</v>
+        <v>0.05938633333333334</v>
       </c>
       <c r="H10">
         <v>0.178159</v>
       </c>
       <c r="I10">
-        <v>0.06458391787617188</v>
+        <v>0.06283762716790325</v>
       </c>
       <c r="J10">
-        <v>0.06458391787617189</v>
+        <v>0.06283762716790325</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>10.187256</v>
       </c>
       <c r="O10">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P10">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q10">
-        <v>0.2016612601893333</v>
+        <v>0.2016612601893334</v>
       </c>
       <c r="R10">
         <v>1.814951341704</v>
       </c>
       <c r="S10">
-        <v>0.006018489761075337</v>
+        <v>0.01938340959380678</v>
       </c>
       <c r="T10">
-        <v>0.006018489761075338</v>
+        <v>0.01938340959380678</v>
       </c>
     </row>
   </sheetData>
